--- a/biology/Botanique/Pin_du_Paraná/Pin_du_Paraná.xlsx
+++ b/biology/Botanique/Pin_du_Paraná/Pin_du_Paraná.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pin_du_Paran%C3%A1</t>
+          <t>Pin_du_Paraná</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Araucaria angustifolia
 Le pin du Paraná (Araucaria angustifolia ; en portugais : araucária, en espagnol : pino Paraná) est une espèce de conifères du genre Araucaria et de la famille des Araucariaceae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pin_du_Paran%C3%A1</t>
+          <t>Pin_du_Paraná</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est endémique de la région sud du Brésil (Paraná, Santa Catarina, Rio Grande do Sul), et se trouve également désormais dans quelques régions voisines du Paraguay et du nord est de l'Argentine (Misiones), poussant sur les montagnes de faible altitude (de 500 à 1 800 m).
 Il est considéré comme en danger critique d'extinction puisqu’il a été exploité pendant de nombreuses années sans être replanté en conséquence. Il produit un bois d’une excellente qualité utilisé comme bois d'œuvre mais sa repousse est lente, 80 à 90 ans pour arriver à maturité. Il est progressivement remplacé par le pin américain (Pinus elliottii), qui a l'avantage de ne mettre que 20 à 30 ans pour atteindre sa taille optimale, mais qui consomme énormément d’eau et possède des qualités intrinsèques inférieures.
